--- a/medicine/Soins infirmiers et profession infirmière/Hôpital/Hôpital.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Hôpital/Hôpital.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital</t>
+          <t>Hôpital</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un hôpital est un établissement de soins où un personnel soignant peut prendre en charge des personnes malades ou victimes de traumatismes trop complexes pour être traités à domicile ou dans le cabinet de médecin[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un hôpital est un établissement de soins où un personnel soignant peut prendre en charge des personnes malades ou victimes de traumatismes trop complexes pour être traités à domicile ou dans le cabinet de médecin.
 Dans la plupart des pays développés, par rapport au domicile et au cabinet du médecin, le centre hospitalier présente l'avantage d'avoir :
 une hygiène assurée par un personnel de nettoyage formé ;
 un accueil permanent et une surveillance continue par du personnel hospitalier médical et paramédical (infirmier ou infirmières, aides-soignant) ;
-des équipes[2] de soignants, disposant de compétences particulières (médecins spécialistes) et du matériel (plateau technique) nécessaire à des examens et soins plus poussés qu'au cabinet du médecin (dont en général des blocs opératoires) ;
+des équipes de soignants, disposant de compétences particulières (médecins spécialistes) et du matériel (plateau technique) nécessaire à des examens et soins plus poussés qu'au cabinet du médecin (dont en général des blocs opératoires) ;
 d'une Pharmacie à Usage Intérieur ayant des dispositifs médicaux et des spécialités pharmaceutiques spécifiques.
 En revanche, la présence et le passage de patients porteurs de nombreuses pathologies, et l'usage chronique de médicaments et biocides expose à un risque d'infection nosocomiale.
 Certains hôpitaux ont un service des urgences, voire un service mobile d'urgence et de réanimation (SMUR).
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital</t>
+          <t>Hôpital</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,7 +530,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du latin hospes (« hôte »), qui est aussi la racine de « hospitalité ».
 </t>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital</t>
+          <t>Hôpital</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,6 +564,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4pital</t>
+          <t>Hôpital</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -583,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H%C3%B4pital</t>
+          <t>Hôpital</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,12 +619,14 @@
           <t>Financement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le monde, les hôpitaux sont généralement financés par l'État, par des organismes de santé (à but lucratif ou à but non lucratif), par l'assurance maladie quand elle existe ou avec l'aide d'organismes de bienfaisance, y compris par des dons de bienfaisance.
-Depuis quelques années, un « système de tarification à l'activité » (dit T2A) a été mis en place dans une vingtaine de pays (dont la France depuis 2005) pour financer les courts séjours en établissements de santé (sur des bases plus ou moins similaires)[3]. Cette approche T2A consiste à « payer les établissements en fonction de leur activité mesurée par groupe homogène de malades », pour « améliorer l’efficience et la transparence dans le financement des soins ». Cependant, les retour d'expérience de certains pays montrent que ce système peut avoir des effets pervers. Par exemple, la T2A « incite les établissements à augmenter leur activité en induisant la demande de soins et à transférer une partie de leurs coûts vers les soins de suite ou à domicile. » Elle implique donc des réajustements périodiques et une régulation[3] . Par ailleurs, « assurer la cohérence à la fois clinique et économique du classement de l'activité hospitalière et établir le niveau des tarifs correspondant sont deux défis difficiles » et « payer un prix fixe qui soit directement indexé sur les coûts moyens observés et qui reste commun à tous les types d’établissements est de plus en plus contesté »[3].
+Depuis quelques années, un « système de tarification à l'activité » (dit T2A) a été mis en place dans une vingtaine de pays (dont la France depuis 2005) pour financer les courts séjours en établissements de santé (sur des bases plus ou moins similaires). Cette approche T2A consiste à « payer les établissements en fonction de leur activité mesurée par groupe homogène de malades », pour « améliorer l’efficience et la transparence dans le financement des soins ». Cependant, les retour d'expérience de certains pays montrent que ce système peut avoir des effets pervers. Par exemple, la T2A « incite les établissements à augmenter leur activité en induisant la demande de soins et à transférer une partie de leurs coûts vers les soins de suite ou à domicile. » Elle implique donc des réajustements périodiques et une régulation . Par ailleurs, « assurer la cohérence à la fois clinique et économique du classement de l'activité hospitalière et établir le niveau des tarifs correspondant sont deux défis difficiles » et « payer un prix fixe qui soit directement indexé sur les coûts moyens observés et qui reste commun à tous les types d’établissements est de plus en plus contesté ».
 La T2A concerne le financement des séjours dits de MCOO (Médecine Chirurgie Obstétrique Odontologie). Les séjours sont généralement courts (anciennement nommés : « court séjour ») par opposition au moyen séjour (actuellement dénommé Soins de suite et de rééducation et de réadaptation ou SSR). Le codage de l'activité en SSR relève également du PMSI, au même titre que le MCOO.
-Cependant, en France, les consultations et actes externes peuvent faire l'objet de dépassements d'honoraires[4].
+Cependant, en France, les consultations et actes externes peuvent faire l'objet de dépassements d'honoraires.
 </t>
         </is>
       </c>
@@ -617,7 +637,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>H%C3%B4pital</t>
+          <t>Hôpital</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,7 +655,9 @@
           <t>Types de patients</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La plupart des patients viennent à l'hôpital pour le diagnostic et/ou la thérapie, puis le quittent. Certains (généralement atteints de pathologies graves) sont « admis » et y passent la nuit ou plusieurs semaines ou mois selon l'état de leur santé. Il existe des hospitalisations dites programmées, organisées à l'avance par le médecin suivant le patient. Il existe également des admissions non programmées avec admission après un passage aux urgences où la décision d'hospitaliser est prise. Il existe également des admissions par la voie de mutation d'un service hospitalier à un autre (appartenant ou pas au même établissement de santé).      
 Types d'hospitalisations :
@@ -650,7 +672,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>H%C3%B4pital</t>
+          <t>Hôpital</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -670,27 +692,15 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Général
-Le type le plus connu d'hôpital est l'hôpital général. Il traite de plusieurs types de maladies et traumatismes et dispose généralement d'un service d'urgence pour faire face à des menaces immédiates pour la santé et la capacité d'envoyer des services médicaux d'urgence. Un hôpital général est souvent le principal établissement de soins de santé dans sa région, avec des lits pour soins intensifs et de soins de longue durée, et des installations spécialisées pour la chirurgie, la cardiologie et la neurologie.
+          <t>Général</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le type le plus connu d'hôpital est l'hôpital général. Il traite de plusieurs types de maladies et traumatismes et dispose généralement d'un service d'urgence pour faire face à des menaces immédiates pour la santé et la capacité d'envoyer des services médicaux d'urgence. Un hôpital général est souvent le principal établissement de soins de santé dans sa région, avec des lits pour soins intensifs et de soins de longue durée, et des installations spécialisées pour la chirurgie, la cardiologie et la neurologie.
 S'il combine l'aide aux patients à l'enseignement aux étudiants et internes en médecine et en pharmacie, c'est un hôpital d'enseignement (ou hôpital universitaire) et il est souvent lié à une faculté de médecine et de pharmacie.
-En France, les CHU (Centres Hospitaliers Universitaires) sont les centres hospitaliers régionaux ayant une convention avec une faculté de médecine[5], en opposition aux CH (Centres Hospitaliers). De manière générale, les hôpitaux généraux sont regroupés selon leur taille et le volume de leur activité codée via le Programme de médicalisation des systèmes d'information (PMSI) :
-Spécialisé
-Les hôpitaux spécialisés sont des centres dont l'objectif est de faire face à des besoins médicaux spécifiques tels que la traumatologie, la réhabilitation des hôpitaux, la gériatrie, les troubles mentaux etc.  
-Par exemple : les hôpitaux psychiatriques gèrent les hospitalisations en santé mentale tandis que les sanatoriums sont spécialisés dans les cas de tuberculose. 
-Hospitalisation à Domicile (HAD)
-L'hospitalisation à domicile n'est pas une hospitalisation à proprement parler : elle est un mode d'organisation des soins permettant à des patients, souvent atteint de pathologie chronique ou de longue durée, de rester chez eux. Les patients résident donc à leur domicile et bénéficient de soins avec la visite de soignants dépendant d'un organisme privé ou public qui coordonne les soins (toilette à domicile, actes infirmiers, traitement, évaluation clinique du patient) et assure le suivi.   
-En France, Les règles d'hospitalisation sont les mêmes que les autres types d'établissement hospitaliers. L'activité de HAD est un des « champs » du PMSI et est codé de façon particulière par le service DIM de la structure HAD. Elle renseigne notamment les diagnostics médicaux selon la classification de la CIM 10, la dépendance et les actes de soins réalisés[7].   
-Autres cas particuliers
-Clinique
-Dans les pays où le secteur privé est autorisé, un centre hospitalier peut être appelé clinique s'il n'est pas public. 
-Hôpital militaire
-Un hôpital militaire une structure de santé sous la responsabilité de l'armée. En France, c'est le Service de santé des armées qui gère ce genre d'établissement. 
-Hôpital de campagne
-Un hôpital de campagne est un établissement de soins provisoirement érigé en cas de catastrophe, de conflit armé ou de grandes manifestations.  
-Dispensaire
-Un dispensaire est un centre qui délivre des soins à titre gratuit.  
-Hospitel
-Un hospitel est un hôtel transformé ponctuellement en hôpital lors de crises sanitaires.
+En France, les CHU (Centres Hospitaliers Universitaires) sont les centres hospitaliers régionaux ayant une convention avec une faculté de médecine, en opposition aux CH (Centres Hospitaliers). De manière générale, les hôpitaux généraux sont regroupés selon leur taille et le volume de leur activité codée via le Programme de médicalisation des systèmes d'information (PMSI) :
 </t>
         </is>
       </c>
@@ -701,7 +711,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>H%C3%B4pital</t>
+          <t>Hôpital</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -716,13 +726,299 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Types d'hôpitaux</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Spécialisé</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les hôpitaux spécialisés sont des centres dont l'objectif est de faire face à des besoins médicaux spécifiques tels que la traumatologie, la réhabilitation des hôpitaux, la gériatrie, les troubles mentaux etc.  
+Par exemple : les hôpitaux psychiatriques gèrent les hospitalisations en santé mentale tandis que les sanatoriums sont spécialisés dans les cas de tuberculose. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hôpital</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Types d'hôpitaux</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Hospitalisation à Domicile (HAD)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hospitalisation à domicile n'est pas une hospitalisation à proprement parler : elle est un mode d'organisation des soins permettant à des patients, souvent atteint de pathologie chronique ou de longue durée, de rester chez eux. Les patients résident donc à leur domicile et bénéficient de soins avec la visite de soignants dépendant d'un organisme privé ou public qui coordonne les soins (toilette à domicile, actes infirmiers, traitement, évaluation clinique du patient) et assure le suivi.   
+En France, Les règles d'hospitalisation sont les mêmes que les autres types d'établissement hospitaliers. L'activité de HAD est un des « champs » du PMSI et est codé de façon particulière par le service DIM de la structure HAD. Elle renseigne notamment les diagnostics médicaux selon la classification de la CIM 10, la dépendance et les actes de soins réalisés.   
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hôpital</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Types d'hôpitaux</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Autres cas particuliers</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Clinique</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les pays où le secteur privé est autorisé, un centre hospitalier peut être appelé clinique s'il n'est pas public. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hôpital</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Types d'hôpitaux</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Autres cas particuliers</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Hôpital militaire</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un hôpital militaire une structure de santé sous la responsabilité de l'armée. En France, c'est le Service de santé des armées qui gère ce genre d'établissement. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Hôpital</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Types d'hôpitaux</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Autres cas particuliers</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Hôpital de campagne</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un hôpital de campagne est un établissement de soins provisoirement érigé en cas de catastrophe, de conflit armé ou de grandes manifestations.  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Hôpital</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Types d'hôpitaux</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Autres cas particuliers</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Dispensaire</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un dispensaire est un centre qui délivre des soins à titre gratuit.  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hôpital</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Types d'hôpitaux</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Autres cas particuliers</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Hospitel</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un hospitel est un hôtel transformé ponctuellement en hôpital lors de crises sanitaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Hôpital</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Services des hôpitaux</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Domaines généraux
-Outre les services administratifs, on retrouve des services de spécialité selon les spécificités de centre : 
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Domaines généraux</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outre les services administratifs, on retrouve des services de spécialité selon les spécificités de centre : 
 médecine générale
 immunologie
 radiologie
@@ -745,8 +1041,43 @@
 Pédiatrie
 Service des grands brûlés
 voir l'article Médecine pour la liste des spécialités possibles.
-Domaines spécifiques
-Le centre hospitalier peut aussi avoir des services spécifiques :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Hôpital</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Services des hôpitaux</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Domaines spécifiques</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Le centre hospitalier peut aussi avoir des services spécifiques :
 laboratoires d'analyse biologique ;
 établissement de transfusion sanguine ;
 salle de garde (salles ou local réservés aux internes de médecine mais ne constituant pas un service à proprement parler) ;
@@ -754,38 +1085,111 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>H%C3%B4pital</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hôpital</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>L'hôpital dans les arts et les médias</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Cinéma
-Le film Tout sur ma mère de Pedro Almodóvar (1999) est tourné en partie à l'Hôpital de la Mer de la ville de Barcelone. Les scènes avec l'actrice Penélope Cruz font du centre hospitalier un lieu célèbre de l'histoire du cinéma[8].
-Télévision
-Le documentaire Dans le ventre de l’hôpital (2014-2016), tourné à l’hôpital Saint Louis, à Paris, est diffusé sur la chaîne franco-allemande Arte en 2017[9].
-Musique
-La chanson Maman a tort de Mylène Farmer (1984) évoque l'hôpital[10].</t>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Le film Tout sur ma mère de Pedro Almodóvar (1999) est tourné en partie à l'Hôpital de la Mer de la ville de Barcelone. Les scènes avec l'actrice Penélope Cruz font du centre hospitalier un lieu célèbre de l'histoire du cinéma.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Hôpital</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>L'hôpital dans les arts et les médias</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Le documentaire Dans le ventre de l’hôpital (2014-2016), tourné à l’hôpital Saint Louis, à Paris, est diffusé sur la chaîne franco-allemande Arte en 2017.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Hôpital</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>L'hôpital dans les arts et les médias</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>La chanson Maman a tort de Mylène Farmer (1984) évoque l'hôpital.</t>
         </is>
       </c>
     </row>
